--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1070876.232715233</v>
+        <v>-1071312.548389679</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218615.8834996858</v>
+        <v>218615.8834996851</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>363.9722758870101</v>
+        <v>105.1881618152211</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -756,7 +756,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0.3870194934062783</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>138.2786938216834</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>66.95154967741719</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>32.29227842404629</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>220.2859252445492</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>370.0419365865559</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>52.43796359440521</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
@@ -987,13 +987,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>39.77885407520503</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1038,7 +1038,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5961130869169</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>91.93139158138763</v>
+        <v>236.4348229410262</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>154.0785985401033</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -1196,7 +1196,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>211.8620952670061</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1215,13 +1215,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>14.94369215795332</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -1230,7 +1230,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>172.9505442164191</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>95.41725175393267</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>117.6548529718308</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>277.2012677100157</v>
       </c>
       <c r="E11" t="n">
-        <v>298.9434052799212</v>
+        <v>298.9434052799213</v>
       </c>
       <c r="F11" t="n">
-        <v>318.1152213678984</v>
+        <v>318.1152213678985</v>
       </c>
       <c r="G11" t="n">
-        <v>290.8699818644366</v>
+        <v>320.048489265321</v>
       </c>
       <c r="H11" t="n">
-        <v>237.5986042436308</v>
+        <v>36.13962904603937</v>
       </c>
       <c r="I11" t="n">
-        <v>79.19456938825897</v>
+        <v>79.19456938825903</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>130.220899391266</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.7150239479851</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>267.0151234259421</v>
       </c>
       <c r="X11" t="n">
-        <v>286.3153816586886</v>
+        <v>286.3153816586887</v>
       </c>
       <c r="Y11" t="n">
-        <v>297.7119794548873</v>
+        <v>297.7119794548875</v>
       </c>
     </row>
     <row r="12">
@@ -1500,7 +1500,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
         <v>216.3098444776729</v>
@@ -1515,7 +1515,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>176.030621801413</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.82535758250305</v>
+        <v>89.8253575825031</v>
       </c>
       <c r="C13" t="n">
-        <v>76.02535242790353</v>
+        <v>76.02535242790358</v>
       </c>
       <c r="D13" t="n">
-        <v>59.64671682548192</v>
+        <v>59.64671682548197</v>
       </c>
       <c r="E13" t="n">
-        <v>58.59446668126137</v>
+        <v>58.59446668126142</v>
       </c>
       <c r="F13" t="n">
-        <v>59.06139100944768</v>
+        <v>59.06139100944773</v>
       </c>
       <c r="G13" t="n">
-        <v>75.33609373079551</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>65.88446135348599</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.13210615673259</v>
+        <v>56.13210615673265</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>138.952706237445</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>192.4238797007582</v>
       </c>
       <c r="V13" t="n">
-        <v>166.2334939821286</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>191.4003800527419</v>
+        <v>191.400380052742</v>
       </c>
       <c r="X13" t="n">
-        <v>137.045482048545</v>
+        <v>137.0454820485451</v>
       </c>
       <c r="Y13" t="n">
-        <v>43.34494544470357</v>
+        <v>26.60619210338254</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>298.208646707806</v>
+        <v>298.2086467078059</v>
       </c>
       <c r="C14" t="n">
         <v>286.2199636654877</v>
@@ -1622,10 +1622,10 @@
         <v>320.0484892653209</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>237.5986042436308</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>79.19456938825896</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.46222820091658</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.220899391266</v>
       </c>
       <c r="U14" t="n">
-        <v>160.4420255081129</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>212.8886003966556</v>
+        <v>267.015123425942</v>
       </c>
       <c r="X14" t="n">
-        <v>286.3153816586886</v>
+        <v>149.8665623683304</v>
       </c>
       <c r="Y14" t="n">
-        <v>297.7119794548873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1740,7 +1740,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>216.3098444776729</v>
+        <v>201.7443531921696</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -1752,7 +1752,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>176.0306218014135</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.82535758250305</v>
+        <v>89.82535758250303</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02535242790353</v>
+        <v>76.02535242790351</v>
       </c>
       <c r="D16" t="n">
-        <v>59.64671682548192</v>
+        <v>59.6467168254819</v>
       </c>
       <c r="E16" t="n">
-        <v>58.59446668126137</v>
+        <v>58.59446668126135</v>
       </c>
       <c r="F16" t="n">
-        <v>59.06139100944768</v>
+        <v>59.06139100944766</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>75.3360937307955</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>65.88446135348592</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.86655653831527</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.13210615673259</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>192.4238797007581</v>
       </c>
       <c r="V16" t="n">
-        <v>166.2334939821286</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>128.6898959603152</v>
+        <v>191.4003800527419</v>
       </c>
       <c r="X16" t="n">
         <v>137.045482048545</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.9203498046127</v>
+        <v>95.48835422845038</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1901,7 @@
         <v>86.20741778068896</v>
       </c>
       <c r="V17" t="n">
-        <v>167.4804162205611</v>
+        <v>167.4804162205614</v>
       </c>
       <c r="W17" t="n">
         <v>192.780515698518</v>
@@ -1935,7 +1935,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914445</v>
       </c>
       <c r="H18" t="n">
         <v>98.93847887876893</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>261.4420352612605</v>
+        <v>261.4420352612604</v>
       </c>
       <c r="C26" t="n">
-        <v>249.4533522189422</v>
+        <v>249.4533522189421</v>
       </c>
       <c r="D26" t="n">
         <v>240.4346562634701</v>
@@ -2573,7 +2573,7 @@
         <v>200.8319927970853</v>
       </c>
       <c r="I26" t="n">
-        <v>42.42795794171343</v>
+        <v>42.4279579417134</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.69561675437106</v>
+        <v>56.69561675437103</v>
       </c>
       <c r="T26" t="n">
-        <v>93.45428794472042</v>
+        <v>93.45428794472039</v>
       </c>
       <c r="U26" t="n">
         <v>123.6754140615674</v>
@@ -2615,10 +2615,10 @@
         <v>204.9484125014395</v>
       </c>
       <c r="W26" t="n">
-        <v>230.2485119793965</v>
+        <v>230.2485119793964</v>
       </c>
       <c r="X26" t="n">
-        <v>249.5487702121431</v>
+        <v>249.548770212143</v>
       </c>
       <c r="Y26" t="n">
         <v>260.9453680083418</v>
@@ -2634,7 +2634,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C27" t="n">
-        <v>145.5211447459513</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
         <v>137.45025063969</v>
@@ -2697,7 +2697,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X27" t="n">
-        <v>195.9378182409833</v>
+        <v>181.3723269554797</v>
       </c>
       <c r="Y27" t="n">
         <v>190.5961130869169</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05874613595751</v>
+        <v>53.05874613595748</v>
       </c>
       <c r="C28" t="n">
-        <v>39.25874098135799</v>
+        <v>39.25874098135796</v>
       </c>
       <c r="D28" t="n">
-        <v>22.88010537893638</v>
+        <v>22.88010537893635</v>
       </c>
       <c r="E28" t="n">
-        <v>21.82785523471583</v>
+        <v>21.8278552347158</v>
       </c>
       <c r="F28" t="n">
-        <v>22.29477956290214</v>
+        <v>22.29477956290211</v>
       </c>
       <c r="G28" t="n">
-        <v>38.56948228424997</v>
+        <v>38.56948228424994</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11784990694039</v>
+        <v>29.11784990694036</v>
       </c>
       <c r="I28" t="n">
-        <v>14.09994509176974</v>
+        <v>14.09994509176971</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.36549471018705</v>
+        <v>19.36549471018702</v>
       </c>
       <c r="S28" t="n">
-        <v>82.91159610877079</v>
+        <v>82.91159610877077</v>
       </c>
       <c r="T28" t="n">
         <v>102.1860947908994</v>
@@ -2773,13 +2773,13 @@
         <v>129.4668825355831</v>
       </c>
       <c r="W28" t="n">
-        <v>154.6337686061964</v>
+        <v>154.6337686061963</v>
       </c>
       <c r="X28" t="n">
-        <v>100.2788706019995</v>
+        <v>100.2788706019994</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.15373835806716</v>
+        <v>91.15373835806713</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>261.4420352612605</v>
+        <v>261.4420352612604</v>
       </c>
       <c r="C29" t="n">
-        <v>249.4533522189422</v>
+        <v>249.4533522189421</v>
       </c>
       <c r="D29" t="n">
         <v>240.4346562634701</v>
@@ -2810,7 +2810,7 @@
         <v>200.8319927970853</v>
       </c>
       <c r="I29" t="n">
-        <v>42.42795794171283</v>
+        <v>42.4279579417134</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.69561675437106</v>
+        <v>56.69561675437103</v>
       </c>
       <c r="T29" t="n">
-        <v>93.45428794472042</v>
+        <v>93.45428794472039</v>
       </c>
       <c r="U29" t="n">
         <v>123.6754140615674</v>
@@ -2852,10 +2852,10 @@
         <v>204.9484125014395</v>
       </c>
       <c r="W29" t="n">
-        <v>230.2485119793965</v>
+        <v>230.2485119793964</v>
       </c>
       <c r="X29" t="n">
-        <v>249.5487702121431</v>
+        <v>249.548770212143</v>
       </c>
       <c r="Y29" t="n">
         <v>260.9453680083418</v>
@@ -2886,7 +2886,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>84.37298759326555</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
         <v>67.69846245683961</v>
@@ -2928,7 +2928,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V30" t="n">
-        <v>226.1116663261494</v>
+        <v>211.546175040646</v>
       </c>
       <c r="W30" t="n">
         <v>238.9027100790231</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05874613595751</v>
+        <v>53.05874613595748</v>
       </c>
       <c r="C31" t="n">
-        <v>39.25874098135799</v>
+        <v>39.25874098135796</v>
       </c>
       <c r="D31" t="n">
-        <v>22.88010537893638</v>
+        <v>22.88010537893635</v>
       </c>
       <c r="E31" t="n">
-        <v>21.82785523471583</v>
+        <v>21.8278552347158</v>
       </c>
       <c r="F31" t="n">
-        <v>22.29477956290214</v>
+        <v>22.29477956290211</v>
       </c>
       <c r="G31" t="n">
-        <v>38.56948228424997</v>
+        <v>38.56948228424994</v>
       </c>
       <c r="H31" t="n">
-        <v>29.11784990694039</v>
+        <v>29.11784990694036</v>
       </c>
       <c r="I31" t="n">
-        <v>14.09994509176974</v>
+        <v>14.09994509176971</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.36549471018705</v>
+        <v>19.36549471018702</v>
       </c>
       <c r="S31" t="n">
-        <v>82.91159610877079</v>
+        <v>82.91159610877077</v>
       </c>
       <c r="T31" t="n">
         <v>102.1860947908994</v>
@@ -3010,13 +3010,13 @@
         <v>129.4668825355831</v>
       </c>
       <c r="W31" t="n">
-        <v>154.6337686061964</v>
+        <v>154.6337686061963</v>
       </c>
       <c r="X31" t="n">
-        <v>100.2788706019995</v>
+        <v>100.2788706019994</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.15373835806716</v>
+        <v>91.15373835806713</v>
       </c>
     </row>
     <row r="32">
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>253.327175636089</v>
+        <v>253.3271756360891</v>
       </c>
       <c r="C32" t="n">
         <v>241.3384925937708</v>
       </c>
       <c r="D32" t="n">
-        <v>232.3197966382987</v>
+        <v>232.3197966382988</v>
       </c>
       <c r="E32" t="n">
         <v>254.0619342082043</v>
       </c>
       <c r="F32" t="n">
-        <v>273.2337502961814</v>
+        <v>273.2337502961815</v>
       </c>
       <c r="G32" t="n">
         <v>275.167018193604</v>
@@ -3047,7 +3047,7 @@
         <v>192.7171331719139</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31309831654201</v>
+        <v>34.31309831654207</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.58075712919964</v>
+        <v>48.5807571291997</v>
       </c>
       <c r="T32" t="n">
-        <v>85.339428319549</v>
+        <v>85.33942831954906</v>
       </c>
       <c r="U32" t="n">
         <v>115.560554436396</v>
       </c>
       <c r="V32" t="n">
-        <v>196.8335528762681</v>
+        <v>196.8335528762682</v>
       </c>
       <c r="W32" t="n">
-        <v>222.133652354225</v>
+        <v>222.1336523542251</v>
       </c>
       <c r="X32" t="n">
-        <v>241.4339105869716</v>
+        <v>241.4339105869717</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.8305083831704</v>
+        <v>252.8305083831705</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3114,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
-        <v>130.9922385581941</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
         <v>133.3468600696244</v>
@@ -3156,7 +3156,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>136.7060008318836</v>
       </c>
       <c r="T33" t="n">
         <v>186.7982527956746</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.94388651078609</v>
+        <v>44.94388651078614</v>
       </c>
       <c r="C34" t="n">
-        <v>31.14388135618657</v>
+        <v>31.14388135618663</v>
       </c>
       <c r="D34" t="n">
-        <v>14.76524575376496</v>
+        <v>14.76524575376502</v>
       </c>
       <c r="E34" t="n">
-        <v>13.71299560954441</v>
+        <v>13.71299560954446</v>
       </c>
       <c r="F34" t="n">
-        <v>14.17991993773072</v>
+        <v>14.17991993773077</v>
       </c>
       <c r="G34" t="n">
-        <v>30.45462265907855</v>
+        <v>30.45462265907861</v>
       </c>
       <c r="H34" t="n">
-        <v>21.00299028176897</v>
+        <v>21.00299028176903</v>
       </c>
       <c r="I34" t="n">
-        <v>5.985085466598321</v>
+        <v>5.985085466598377</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.25063508501563</v>
+        <v>11.25063508501569</v>
       </c>
       <c r="S34" t="n">
-        <v>74.79673648359937</v>
+        <v>74.79673648359943</v>
       </c>
       <c r="T34" t="n">
-        <v>94.07123516572801</v>
+        <v>94.07123516572807</v>
       </c>
       <c r="U34" t="n">
         <v>147.5424086290412</v>
@@ -3247,13 +3247,13 @@
         <v>121.3520229104117</v>
       </c>
       <c r="W34" t="n">
-        <v>146.5189089810249</v>
+        <v>146.518908981025</v>
       </c>
       <c r="X34" t="n">
-        <v>92.16401097682805</v>
+        <v>92.16401097682811</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.03887873289574</v>
+        <v>83.0388787328958</v>
       </c>
     </row>
     <row r="35">
@@ -3345,7 +3345,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
-        <v>160.0866360314548</v>
+        <v>145.5211447459515</v>
       </c>
       <c r="D36" t="n">
         <v>137.45025063969</v>
@@ -3357,7 +3357,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
         <v>98.93847887876893</v>
@@ -3591,10 +3591,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841211</v>
       </c>
       <c r="G39" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
         <v>98.93847887876893</v>
@@ -3831,7 +3831,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
@@ -3873,7 +3873,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
-        <v>216.3098444776729</v>
+        <v>201.7443531921696</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -4071,7 +4071,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>84.37298759326566</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
         <v>67.69846245683961</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1180.484829334418</v>
+        <v>776.4444252940141</v>
       </c>
       <c r="C2" t="n">
-        <v>798.5510706672255</v>
+        <v>394.5106666268215</v>
       </c>
       <c r="D2" t="n">
-        <v>798.5510706672255</v>
+        <v>394.5106666268215</v>
       </c>
       <c r="E2" t="n">
-        <v>798.5510706672255</v>
+        <v>394.5106666268215</v>
       </c>
       <c r="F2" t="n">
-        <v>384.3998799773958</v>
+        <v>384.3998799773959</v>
       </c>
       <c r="G2" t="n">
-        <v>372.3362974719878</v>
+        <v>372.3362974719879</v>
       </c>
       <c r="H2" t="n">
-        <v>39.51502306929712</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="I2" t="n">
-        <v>39.51502306929712</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="J2" t="n">
         <v>111.5135673421028</v>
@@ -4343,37 +4343,37 @@
         <v>1471.109837412635</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.114421885469</v>
+        <v>1653.162003322267</v>
       </c>
       <c r="P2" t="n">
-        <v>1881.318899778319</v>
+        <v>1881.31889977832</v>
       </c>
       <c r="Q2" t="n">
-        <v>1975.751153464856</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R2" t="n">
-        <v>1885.112866960709</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="S2" t="n">
-        <v>1885.112866960709</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="T2" t="n">
-        <v>1885.112866960709</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="U2" t="n">
-        <v>1885.112866960709</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="V2" t="n">
-        <v>1548.133592856651</v>
+        <v>1638.771879360798</v>
       </c>
       <c r="W2" t="n">
-        <v>1548.133592856651</v>
+        <v>1276.2369492184</v>
       </c>
       <c r="X2" t="n">
-        <v>1180.484829334418</v>
+        <v>1169.986280718176</v>
       </c>
       <c r="Y2" t="n">
-        <v>1180.484829334418</v>
+        <v>776.4444252940141</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>703.4174883182734</v>
+        <v>918.8277835713412</v>
       </c>
       <c r="C3" t="n">
-        <v>541.7138155592281</v>
+        <v>757.124110812296</v>
       </c>
       <c r="D3" t="n">
-        <v>402.8751785494402</v>
+        <v>618.285473802508</v>
       </c>
       <c r="E3" t="n">
-        <v>402.8751785494402</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="F3" t="n">
-        <v>268.1813804993145</v>
+        <v>336.5636658092535</v>
       </c>
       <c r="G3" t="n">
-        <v>139.4528805225991</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="H3" t="n">
-        <v>39.51502306929712</v>
+        <v>107.8973083792362</v>
       </c>
       <c r="I3" t="n">
-        <v>39.51502306929712</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="J3" t="n">
-        <v>39.51502306929712</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="K3" t="n">
-        <v>269.0055756294858</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="L3" t="n">
-        <v>634.8274207996014</v>
+        <v>405.3368682394128</v>
       </c>
       <c r="M3" t="n">
-        <v>936.7811624125591</v>
+        <v>890.3702217496392</v>
       </c>
       <c r="N3" t="n">
-        <v>1425.779572895111</v>
+        <v>1379.368632232191</v>
       </c>
       <c r="O3" t="n">
-        <v>1817.979523679262</v>
+        <v>1771.568583016342</v>
       </c>
       <c r="P3" t="n">
-        <v>1817.979523679262</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="Q3" t="n">
-        <v>1975.751153464856</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R3" t="n">
-        <v>1975.751153464856</v>
+        <v>1915.966884559803</v>
       </c>
       <c r="S3" t="n">
-        <v>1822.951666477596</v>
+        <v>1915.966884559803</v>
       </c>
       <c r="T3" t="n">
-        <v>1634.266562643581</v>
+        <v>1915.575955778585</v>
       </c>
       <c r="U3" t="n">
-        <v>1634.266562643581</v>
+        <v>1697.081163376895</v>
       </c>
       <c r="V3" t="n">
-        <v>1494.591114338851</v>
+        <v>1468.685540825229</v>
       </c>
       <c r="W3" t="n">
-        <v>1253.275245572161</v>
+        <v>1468.685540825229</v>
       </c>
       <c r="X3" t="n">
-        <v>1055.358257449955</v>
+        <v>1270.768552703023</v>
       </c>
       <c r="Y3" t="n">
-        <v>862.8369310995342</v>
+        <v>1078.247226352602</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.51502306929712</v>
+        <v>1755.073567678332</v>
       </c>
       <c r="C4" t="n">
-        <v>39.51502306929712</v>
+        <v>1755.073567678332</v>
       </c>
       <c r="D4" t="n">
-        <v>39.51502306929712</v>
+        <v>1755.073567678332</v>
       </c>
       <c r="E4" t="n">
-        <v>39.51502306929712</v>
+        <v>1603.064553439651</v>
       </c>
       <c r="F4" t="n">
-        <v>39.51502306929712</v>
+        <v>1603.064553439651</v>
       </c>
       <c r="G4" t="n">
-        <v>39.51502306929712</v>
+        <v>1603.064553439651</v>
       </c>
       <c r="H4" t="n">
-        <v>39.51502306929712</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="I4" t="n">
-        <v>39.51502306929712</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="J4" t="n">
-        <v>39.51502306929712</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="K4" t="n">
-        <v>73.11921081394053</v>
+        <v>1477.296095963568</v>
       </c>
       <c r="L4" t="n">
-        <v>173.7262902142</v>
+        <v>1577.903175363828</v>
       </c>
       <c r="M4" t="n">
-        <v>291.7197963418018</v>
+        <v>1695.896681491429</v>
       </c>
       <c r="N4" t="n">
-        <v>410.1421380914022</v>
+        <v>1814.31902324103</v>
       </c>
       <c r="O4" t="n">
-        <v>508.6057845870918</v>
+        <v>1912.78266973672</v>
       </c>
       <c r="P4" t="n">
-        <v>571.5742683152296</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="Q4" t="n">
-        <v>571.5742683152296</v>
+        <v>1937.213812118546</v>
       </c>
       <c r="R4" t="n">
-        <v>571.5742683152296</v>
+        <v>1787.692030732924</v>
       </c>
       <c r="S4" t="n">
-        <v>571.5742683152296</v>
+        <v>1787.692030732924</v>
       </c>
       <c r="T4" t="n">
-        <v>338.3953151309084</v>
+        <v>1787.692030732924</v>
       </c>
       <c r="U4" t="n">
-        <v>338.3953151309084</v>
+        <v>1787.692030732924</v>
       </c>
       <c r="V4" t="n">
-        <v>270.7674871739214</v>
+        <v>1787.692030732924</v>
       </c>
       <c r="W4" t="n">
-        <v>270.7674871739214</v>
+        <v>1787.692030732924</v>
       </c>
       <c r="X4" t="n">
-        <v>39.51502306929712</v>
+        <v>1755.073567678332</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.51502306929712</v>
+        <v>1755.073567678332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>638.5469950557386</v>
+        <v>1220.487519704504</v>
       </c>
       <c r="C5" t="n">
-        <v>638.5469950557386</v>
+        <v>838.5537610373112</v>
       </c>
       <c r="D5" t="n">
-        <v>638.5469950557386</v>
+        <v>465.7297962645347</v>
       </c>
       <c r="E5" t="n">
-        <v>638.5469950557386</v>
+        <v>465.7297962645347</v>
       </c>
       <c r="F5" t="n">
-        <v>628.4362084063131</v>
+        <v>455.6190096151091</v>
       </c>
       <c r="G5" t="n">
-        <v>212.3322218605011</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="H5" t="n">
-        <v>212.3322218605011</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="I5" t="n">
-        <v>39.51502306929712</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="J5" t="n">
         <v>111.5135673421028</v>
@@ -4580,37 +4580,37 @@
         <v>1471.109837412635</v>
       </c>
       <c r="O5" t="n">
-        <v>1653.162003322266</v>
+        <v>1776.114421885469</v>
       </c>
       <c r="P5" t="n">
-        <v>1881.318899778319</v>
+        <v>1881.31889977832</v>
       </c>
       <c r="Q5" t="n">
-        <v>1975.751153464856</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R5" t="n">
-        <v>1885.112866960709</v>
+        <v>1885.112866960711</v>
       </c>
       <c r="S5" t="n">
-        <v>1885.112866960709</v>
+        <v>1697.883891591065</v>
       </c>
       <c r="T5" t="n">
-        <v>1660.753920691721</v>
+        <v>1697.883891591065</v>
       </c>
       <c r="U5" t="n">
-        <v>1405.868584405715</v>
+        <v>1442.998555305059</v>
       </c>
       <c r="V5" t="n">
-        <v>1405.868584405715</v>
+        <v>1220.487519704504</v>
       </c>
       <c r="W5" t="n">
-        <v>1405.868584405715</v>
+        <v>1220.487519704504</v>
       </c>
       <c r="X5" t="n">
-        <v>1032.088850479901</v>
+        <v>1220.487519704504</v>
       </c>
       <c r="Y5" t="n">
-        <v>638.5469950557386</v>
+        <v>1220.487519704504</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>703.4174883182734</v>
+        <v>534.3352408868004</v>
       </c>
       <c r="C6" t="n">
-        <v>541.7138155592281</v>
+        <v>481.3676008924517</v>
       </c>
       <c r="D6" t="n">
-        <v>402.8751785494402</v>
+        <v>342.5289638826638</v>
       </c>
       <c r="E6" t="n">
-        <v>402.8751785494402</v>
+        <v>342.5289638826638</v>
       </c>
       <c r="F6" t="n">
-        <v>268.1813804993145</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="G6" t="n">
-        <v>139.4528805225991</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="H6" t="n">
-        <v>39.51502306929712</v>
+        <v>107.8973083792362</v>
       </c>
       <c r="I6" t="n">
-        <v>39.51502306929712</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="J6" t="n">
-        <v>39.51502306929712</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="K6" t="n">
-        <v>269.0055756294858</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="L6" t="n">
-        <v>634.8274207996014</v>
+        <v>149.6518896266363</v>
       </c>
       <c r="M6" t="n">
-        <v>634.8274207996014</v>
+        <v>634.6852431368627</v>
       </c>
       <c r="N6" t="n">
-        <v>1123.825831282153</v>
+        <v>1123.683653619415</v>
       </c>
       <c r="O6" t="n">
-        <v>1516.025782066304</v>
+        <v>1515.883604403566</v>
       </c>
       <c r="P6" t="n">
-        <v>1817.979523679262</v>
+        <v>1817.979523679263</v>
       </c>
       <c r="Q6" t="n">
-        <v>1975.751153464856</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R6" t="n">
-        <v>1915.966884559802</v>
+        <v>1915.966884559803</v>
       </c>
       <c r="S6" t="n">
-        <v>1763.167397572542</v>
+        <v>1763.167397572543</v>
       </c>
       <c r="T6" t="n">
-        <v>1722.986736890517</v>
+        <v>1574.482293738528</v>
       </c>
       <c r="U6" t="n">
-        <v>1722.986736890517</v>
+        <v>1355.987501336838</v>
       </c>
       <c r="V6" t="n">
-        <v>1494.591114338851</v>
+        <v>1127.591878785172</v>
       </c>
       <c r="W6" t="n">
-        <v>1253.275245572161</v>
+        <v>886.2760100184825</v>
       </c>
       <c r="X6" t="n">
-        <v>1055.358257449955</v>
+        <v>886.2760100184825</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8369310995342</v>
+        <v>693.7546836680613</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>191.5240373079783</v>
+        <v>99.57226165512442</v>
       </c>
       <c r="C7" t="n">
-        <v>191.5240373079783</v>
+        <v>99.57226165512442</v>
       </c>
       <c r="D7" t="n">
-        <v>191.5240373079783</v>
+        <v>99.57226165512442</v>
       </c>
       <c r="E7" t="n">
-        <v>39.51502306929712</v>
+        <v>99.57226165512442</v>
       </c>
       <c r="F7" t="n">
-        <v>39.51502306929712</v>
+        <v>99.57226165512442</v>
       </c>
       <c r="G7" t="n">
-        <v>39.51502306929712</v>
+        <v>99.57226165512442</v>
       </c>
       <c r="H7" t="n">
-        <v>39.51502306929712</v>
+        <v>99.57226165512442</v>
       </c>
       <c r="I7" t="n">
-        <v>39.51502306929712</v>
+        <v>99.57226165512442</v>
       </c>
       <c r="J7" t="n">
-        <v>39.51502306929712</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="K7" t="n">
-        <v>73.11921081394053</v>
+        <v>73.11921081394055</v>
       </c>
       <c r="L7" t="n">
         <v>173.7262902142</v>
@@ -4753,22 +4753,22 @@
         <v>571.5742683152296</v>
       </c>
       <c r="T7" t="n">
-        <v>571.5742683152296</v>
+        <v>338.3953151309084</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3840288043294</v>
+        <v>338.3953151309084</v>
       </c>
       <c r="V7" t="n">
-        <v>284.3840288043294</v>
+        <v>338.3953151309084</v>
       </c>
       <c r="W7" t="n">
-        <v>191.5240373079783</v>
+        <v>99.57226165512442</v>
       </c>
       <c r="X7" t="n">
-        <v>191.5240373079783</v>
+        <v>99.57226165512442</v>
       </c>
       <c r="Y7" t="n">
-        <v>191.5240373079783</v>
+        <v>99.57226165512442</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1337.446783116597</v>
+        <v>1395.81395152761</v>
       </c>
       <c r="C8" t="n">
-        <v>1337.446783116597</v>
+        <v>1013.880192860417</v>
       </c>
       <c r="D8" t="n">
-        <v>964.6228183438207</v>
+        <v>641.0562280876409</v>
       </c>
       <c r="E8" t="n">
-        <v>569.8370984499275</v>
+        <v>641.0562280876409</v>
       </c>
       <c r="F8" t="n">
-        <v>559.7263118005019</v>
+        <v>226.9050373978112</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H8" t="n">
         <v>214.8414548924032</v>
@@ -4844,10 +4844,10 @@
         <v>1551.448899547916</v>
       </c>
       <c r="X8" t="n">
-        <v>1337.446783116597</v>
+        <v>1551.448899547916</v>
       </c>
       <c r="Y8" t="n">
-        <v>1337.446783116597</v>
+        <v>1551.448899547916</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>650.5650081937138</v>
+        <v>718.2609332431787</v>
       </c>
       <c r="C9" t="n">
-        <v>488.8613354346685</v>
+        <v>556.5572604841334</v>
       </c>
       <c r="D9" t="n">
-        <v>473.7666968912813</v>
+        <v>417.7186234743454</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>252.8463055811703</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>737.8796590913968</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T9" t="n">
-        <v>1888.629049167647</v>
+        <v>1912.527701225946</v>
       </c>
       <c r="U9" t="n">
-        <v>1670.134256765957</v>
+        <v>1737.830181815422</v>
       </c>
       <c r="V9" t="n">
-        <v>1441.738634214291</v>
+        <v>1509.434559263756</v>
       </c>
       <c r="W9" t="n">
-        <v>1200.422765447601</v>
+        <v>1268.118690497066</v>
       </c>
       <c r="X9" t="n">
-        <v>1002.505777325396</v>
+        <v>1070.201702374861</v>
       </c>
       <c r="Y9" t="n">
-        <v>809.9844509749746</v>
+        <v>877.6803760244395</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.405318478909</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="C10" t="n">
-        <v>138.405318478909</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="D10" t="n">
-        <v>138.405318478909</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="E10" t="n">
-        <v>138.405318478909</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="F10" t="n">
         <v>42.02425610119923</v>
@@ -4984,28 +4984,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>424.5617199615099</v>
+        <v>455.2402155169995</v>
       </c>
       <c r="S10" t="n">
-        <v>424.5617199615099</v>
+        <v>455.2402155169995</v>
       </c>
       <c r="T10" t="n">
-        <v>424.5617199615099</v>
+        <v>455.2402155169995</v>
       </c>
       <c r="U10" t="n">
-        <v>424.5617199615099</v>
+        <v>455.2402155169995</v>
       </c>
       <c r="V10" t="n">
-        <v>424.5617199615099</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="W10" t="n">
-        <v>138.405318478909</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="X10" t="n">
-        <v>138.405318478909</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.405318478909</v>
+        <v>194.5049110754221</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1288.193383598597</v>
+        <v>1394.173989571636</v>
       </c>
       <c r="C11" t="n">
-        <v>1288.193383598597</v>
+        <v>1394.173989571636</v>
       </c>
       <c r="D11" t="n">
-        <v>1288.193383598597</v>
+        <v>1114.172709056469</v>
       </c>
       <c r="E11" t="n">
-        <v>986.2303479623129</v>
+        <v>812.2096734201846</v>
       </c>
       <c r="F11" t="n">
-        <v>664.9018415300923</v>
+        <v>490.8811669879641</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0937790407623</v>
+        <v>167.5998646997609</v>
       </c>
       <c r="H11" t="n">
-        <v>131.0951888956806</v>
+        <v>131.0951888956807</v>
       </c>
       <c r="I11" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J11" t="n">
-        <v>214.074731475774</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K11" t="n">
-        <v>545.1906163614394</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L11" t="n">
-        <v>984.0515022872682</v>
+        <v>789.8264789463608</v>
       </c>
       <c r="M11" t="n">
-        <v>1377.290668540356</v>
+        <v>1274.041158040331</v>
       </c>
       <c r="N11" t="n">
-        <v>1755.622027228072</v>
+        <v>1743.34802956893</v>
       </c>
       <c r="O11" t="n">
-        <v>2151.602124541788</v>
+        <v>2048.352614041763</v>
       </c>
       <c r="P11" t="n">
-        <v>2379.759020997842</v>
+        <v>2367.485023338699</v>
       </c>
       <c r="Q11" t="n">
-        <v>2555.033718104286</v>
+        <v>2552.892789866119</v>
       </c>
       <c r="R11" t="n">
         <v>2555.033718104287</v>
@@ -5069,22 +5069,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="T11" t="n">
-        <v>2423.497456092907</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="U11" t="n">
-        <v>2423.497456092907</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="V11" t="n">
-        <v>2179.340866246458</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="W11" t="n">
-        <v>2179.340866246458</v>
+        <v>2285.321472219497</v>
       </c>
       <c r="X11" t="n">
-        <v>1890.13341002556</v>
+        <v>1996.114015998599</v>
       </c>
       <c r="Y11" t="n">
-        <v>1589.414238859007</v>
+        <v>1695.394844832046</v>
       </c>
     </row>
     <row r="12">
@@ -5115,13 +5115,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I12" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J12" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K12" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L12" t="n">
         <v>706.6672186254962</v>
@@ -5142,25 +5142,25 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R12" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S12" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T12" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U12" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V12" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W12" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X12" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y12" t="n">
         <v>1089.832877645391</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>383.0845336296514</v>
+        <v>373.537430218228</v>
       </c>
       <c r="C13" t="n">
-        <v>306.2912483489408</v>
+        <v>296.7441449375173</v>
       </c>
       <c r="D13" t="n">
-        <v>246.0420394343126</v>
+        <v>236.494936022889</v>
       </c>
       <c r="E13" t="n">
-        <v>186.8557094532405</v>
+        <v>177.3086060418167</v>
       </c>
       <c r="F13" t="n">
-        <v>127.1977387366267</v>
+        <v>117.6506353252029</v>
       </c>
       <c r="G13" t="n">
-        <v>51.10067436208573</v>
+        <v>117.6506353252029</v>
       </c>
       <c r="H13" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I13" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J13" t="n">
-        <v>83.21408766499907</v>
+        <v>83.21408766499903</v>
       </c>
       <c r="K13" t="n">
-        <v>207.7937882505251</v>
+        <v>207.793788250525</v>
       </c>
       <c r="L13" t="n">
-        <v>399.3763804916672</v>
+        <v>399.3763804916671</v>
       </c>
       <c r="M13" t="n">
-        <v>608.3453994601516</v>
+        <v>608.3453994601514</v>
       </c>
       <c r="N13" t="n">
-        <v>817.7432540506347</v>
+        <v>817.7432540506343</v>
       </c>
       <c r="O13" t="n">
         <v>1007.182413387207</v>
@@ -5218,7 +5218,7 @@
         <v>1161.126409956227</v>
       </c>
       <c r="Q13" t="n">
-        <v>1214.331474543591</v>
+        <v>1214.33147454359</v>
       </c>
       <c r="R13" t="n">
         <v>1157.632377415578</v>
@@ -5227,22 +5227,22 @@
         <v>1157.632377415578</v>
       </c>
       <c r="T13" t="n">
-        <v>1017.276108488866</v>
+        <v>1017.276108488865</v>
       </c>
       <c r="U13" t="n">
-        <v>1017.276108488866</v>
+        <v>822.9085532355742</v>
       </c>
       <c r="V13" t="n">
-        <v>849.3634883048975</v>
+        <v>822.9085532355742</v>
       </c>
       <c r="W13" t="n">
-        <v>656.0297710799057</v>
+        <v>629.5748360105823</v>
       </c>
       <c r="X13" t="n">
-        <v>517.5999912328905</v>
+        <v>491.1450561635671</v>
       </c>
       <c r="Y13" t="n">
-        <v>473.8172180564223</v>
+        <v>464.2701146449988</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1286.784593128377</v>
+        <v>1606.777697807054</v>
       </c>
       <c r="C14" t="n">
-        <v>997.6735187187934</v>
+        <v>1317.66662339747</v>
       </c>
       <c r="D14" t="n">
-        <v>997.6735187187934</v>
+        <v>1317.66662339747</v>
       </c>
       <c r="E14" t="n">
-        <v>695.7104830825093</v>
+        <v>1015.703587761186</v>
       </c>
       <c r="F14" t="n">
-        <v>374.3819766502887</v>
+        <v>694.3750813289652</v>
       </c>
       <c r="G14" t="n">
-        <v>51.10067436208573</v>
+        <v>371.0937790407623</v>
       </c>
       <c r="H14" t="n">
-        <v>51.10067436208573</v>
+        <v>131.0951888956806</v>
       </c>
       <c r="I14" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J14" t="n">
-        <v>214.074731475774</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K14" t="n">
         <v>454.2151035205568</v>
       </c>
       <c r="L14" t="n">
-        <v>893.0759894463856</v>
+        <v>802.100476605503</v>
       </c>
       <c r="M14" t="n">
         <v>1286.315155699474</v>
@@ -5291,37 +5291,37 @@
         <v>1755.622027228072</v>
       </c>
       <c r="O14" t="n">
-        <v>2151.602124541788</v>
+        <v>2060.626611700906</v>
       </c>
       <c r="P14" t="n">
         <v>2379.759020997842</v>
       </c>
       <c r="Q14" t="n">
-        <v>2555.033718104286</v>
+        <v>2552.892789866118</v>
       </c>
       <c r="R14" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S14" t="n">
-        <v>2555.033718104287</v>
+        <v>2460.62742699225</v>
       </c>
       <c r="T14" t="n">
-        <v>2555.033718104287</v>
+        <v>2329.09116498087</v>
       </c>
       <c r="U14" t="n">
-        <v>2392.97106607589</v>
+        <v>2329.09116498087</v>
       </c>
       <c r="V14" t="n">
-        <v>2392.97106607589</v>
+        <v>2329.09116498087</v>
       </c>
       <c r="W14" t="n">
-        <v>2177.932075776238</v>
+        <v>2059.378919096081</v>
       </c>
       <c r="X14" t="n">
-        <v>1888.72461955534</v>
+        <v>1907.998553067464</v>
       </c>
       <c r="Y14" t="n">
-        <v>1588.005448388787</v>
+        <v>1907.998553067464</v>
       </c>
     </row>
     <row r="15">
@@ -5388,16 +5388,16 @@
         <v>2153.764858377959</v>
       </c>
       <c r="U15" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V15" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W15" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X15" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y15" t="n">
         <v>1089.832877645391</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>306.9874692551106</v>
+        <v>501.0148547324809</v>
       </c>
       <c r="C16" t="n">
-        <v>230.1941839743999</v>
+        <v>424.2215694517703</v>
       </c>
       <c r="D16" t="n">
-        <v>169.9449750597717</v>
+        <v>363.972360537142</v>
       </c>
       <c r="E16" t="n">
-        <v>110.7586450786995</v>
+        <v>304.78603055607</v>
       </c>
       <c r="F16" t="n">
-        <v>51.10067436208573</v>
+        <v>245.1280598394561</v>
       </c>
       <c r="G16" t="n">
-        <v>51.10067436208573</v>
+        <v>169.0309954649152</v>
       </c>
       <c r="H16" t="n">
-        <v>51.10067436208573</v>
+        <v>102.4810345017981</v>
       </c>
       <c r="I16" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J16" t="n">
-        <v>83.21408766499907</v>
+        <v>83.21408766499908</v>
       </c>
       <c r="K16" t="n">
-        <v>207.7937882505251</v>
+        <v>207.7937882505252</v>
       </c>
       <c r="L16" t="n">
-        <v>399.3763804916672</v>
+        <v>399.3763804916673</v>
       </c>
       <c r="M16" t="n">
-        <v>608.3453994601516</v>
+        <v>608.3453994601517</v>
       </c>
       <c r="N16" t="n">
         <v>817.7432540506347</v>
@@ -5458,28 +5458,28 @@
         <v>1214.331474543591</v>
       </c>
       <c r="R16" t="n">
-        <v>1157.632377415578</v>
+        <v>1214.331474543591</v>
       </c>
       <c r="S16" t="n">
-        <v>1157.632377415578</v>
+        <v>1214.331474543591</v>
       </c>
       <c r="T16" t="n">
-        <v>1157.632377415578</v>
+        <v>1214.331474543591</v>
       </c>
       <c r="U16" t="n">
-        <v>963.2648221622869</v>
+        <v>1019.963919290299</v>
       </c>
       <c r="V16" t="n">
-        <v>795.3522019783186</v>
+        <v>1019.963919290299</v>
       </c>
       <c r="W16" t="n">
-        <v>665.3624080790104</v>
+        <v>826.6302020653077</v>
       </c>
       <c r="X16" t="n">
-        <v>526.9326282319952</v>
+        <v>688.2004222182925</v>
       </c>
       <c r="Y16" t="n">
-        <v>397.7201536818812</v>
+        <v>591.7475391592517</v>
       </c>
     </row>
     <row r="17">
@@ -5513,22 +5513,22 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J17" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K17" t="n">
-        <v>403.41534659273</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L17" t="n">
-        <v>751.3007196776763</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M17" t="n">
         <v>1309.007660421797</v>
       </c>
       <c r="N17" t="n">
-        <v>1851.806793600545</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O17" t="n">
-        <v>2156.811378073378</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P17" t="n">
         <v>2384.968274529432</v>
@@ -5549,7 +5549,7 @@
         <v>2391.981869702243</v>
       </c>
       <c r="V17" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W17" t="n">
         <v>2028.08193847085</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C18" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D18" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E18" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F18" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G18" t="n">
         <v>219.4208171253267</v>
@@ -5592,13 +5592,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J18" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K18" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L18" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M18" t="n">
         <v>1191.700572135723</v>
@@ -5616,28 +5616,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R18" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S18" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T18" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U18" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V18" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W18" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X18" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y18" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="19">
@@ -5674,19 +5674,19 @@
         <v>51.10067436208574</v>
       </c>
       <c r="K19" t="n">
-        <v>130.9236227683826</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L19" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M19" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O19" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P19" t="n">
         <v>629.3786802696717</v>
@@ -5729,16 +5729,16 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C20" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D20" t="n">
-        <v>942.7443621478546</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E20" t="n">
-        <v>715.7657787614937</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F20" t="n">
-        <v>469.4217245791963</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G20" t="n">
         <v>221.1248745409159</v>
@@ -5750,19 +5750,19 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J20" t="n">
-        <v>287.5669931259238</v>
+        <v>238.9081644362653</v>
       </c>
       <c r="K20" t="n">
-        <v>527.7073651707066</v>
+        <v>643.5163109720804</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.060512746685</v>
+        <v>991.4016840570266</v>
       </c>
       <c r="M20" t="n">
-        <v>1549.108624801147</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N20" t="n">
-        <v>1927.439983488863</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O20" t="n">
         <v>2232.444567961697</v>
@@ -5792,7 +5792,7 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y20" t="n">
         <v>1588.124215583246</v>
@@ -5835,7 +5835,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L21" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M21" t="n">
         <v>1191.700572135723</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C22" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D22" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E22" t="n">
         <v>52.21328648670347</v>
@@ -5902,58 +5902,58 @@
         <v>51.10067436208574</v>
       </c>
       <c r="H22" t="n">
-        <v>51.10067436208574</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="I22" t="n">
-        <v>51.10067436208574</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="J22" t="n">
-        <v>51.10067436208574</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="K22" t="n">
-        <v>84.70486210672915</v>
+        <v>92.9715070169278</v>
       </c>
       <c r="L22" t="n">
-        <v>185.3119415069887</v>
+        <v>193.5785864171873</v>
       </c>
       <c r="M22" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N22" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O22" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S22" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T22" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U22" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V22" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W22" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X22" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="23">
@@ -5987,13 +5987,13 @@
         <v>51.10067436208589</v>
       </c>
       <c r="J23" t="n">
-        <v>123.0992186348915</v>
+        <v>287.5669931259239</v>
       </c>
       <c r="K23" t="n">
-        <v>403.41534659273</v>
+        <v>527.7073651707067</v>
       </c>
       <c r="L23" t="n">
-        <v>751.3007196776763</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M23" t="n">
         <v>1309.007660421797</v>
@@ -6072,7 +6072,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L24" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M24" t="n">
         <v>1191.700572135723</v>
@@ -6145,10 +6145,10 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J25" t="n">
-        <v>51.10067436208574</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K25" t="n">
-        <v>84.70486210672915</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L25" t="n">
         <v>231.5307021686421</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1638.398690093981</v>
+        <v>1638.39869009398</v>
       </c>
       <c r="C26" t="n">
-        <v>1386.425607044544</v>
+        <v>1386.425607044543</v>
       </c>
       <c r="D26" t="n">
-        <v>1143.562317889524</v>
+        <v>1143.562317889523</v>
       </c>
       <c r="E26" t="n">
-        <v>878.7372736133866</v>
+        <v>878.737273613386</v>
       </c>
       <c r="F26" t="n">
-        <v>594.546758541313</v>
+        <v>594.5467585413124</v>
       </c>
       <c r="G26" t="n">
-        <v>308.4034476132574</v>
+        <v>308.4034476132565</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5428488283223</v>
+        <v>105.5428488283222</v>
       </c>
       <c r="I26" t="n">
         <v>62.68632565487435</v>
@@ -6239,16 +6239,16 @@
         <v>2131.153430863027</v>
       </c>
       <c r="O26" t="n">
-        <v>2518.438342684953</v>
+        <v>2563.532473508823</v>
       </c>
       <c r="P26" t="n">
-        <v>2873.969697313969</v>
+        <v>2919.063828137839</v>
       </c>
       <c r="Q26" t="n">
-        <v>3095.776409173469</v>
+        <v>3095.776409173468</v>
       </c>
       <c r="R26" t="n">
-        <v>3134.316282743718</v>
+        <v>3134.316282743717</v>
       </c>
       <c r="S26" t="n">
         <v>3077.047982991828</v>
@@ -6257,7 +6257,7 @@
         <v>2982.649712340596</v>
       </c>
       <c r="U26" t="n">
-        <v>2857.725051672345</v>
+        <v>2857.725051672346</v>
       </c>
       <c r="V26" t="n">
         <v>2650.706453186043</v>
@@ -6266,10 +6266,10 @@
         <v>2418.1321986614</v>
       </c>
       <c r="X26" t="n">
-        <v>2166.06273380065</v>
+        <v>2166.062733800649</v>
       </c>
       <c r="Y26" t="n">
-        <v>1902.481553994244</v>
+        <v>1902.481553994243</v>
       </c>
     </row>
     <row r="27">
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>927.2864686968139</v>
+        <v>941.9990861569185</v>
       </c>
       <c r="C27" t="n">
         <v>780.2954133978732</v>
@@ -6306,10 +6306,10 @@
         <v>122.9404721879805</v>
       </c>
       <c r="K27" t="n">
-        <v>352.4310247481692</v>
+        <v>352.4310247481691</v>
       </c>
       <c r="L27" t="n">
-        <v>718.2528699182849</v>
+        <v>718.2528699182848</v>
       </c>
       <c r="M27" t="n">
         <v>1203.286223428511</v>
@@ -6345,10 +6345,10 @@
         <v>1477.144225950701</v>
       </c>
       <c r="X27" t="n">
-        <v>1279.227237828496</v>
+        <v>1293.9398552886</v>
       </c>
       <c r="Y27" t="n">
-        <v>1086.705911478075</v>
+        <v>1101.418528938179</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.6345665042404</v>
+        <v>252.6345665042402</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9792725836768</v>
+        <v>212.9792725836766</v>
       </c>
       <c r="D28" t="n">
-        <v>189.8680550291956</v>
+        <v>189.8680550291955</v>
       </c>
       <c r="E28" t="n">
-        <v>167.8197164082706</v>
+        <v>167.8197164082704</v>
       </c>
       <c r="F28" t="n">
-        <v>145.2997370518038</v>
+        <v>145.2997370518036</v>
       </c>
       <c r="G28" t="n">
-        <v>106.3406640374099</v>
+        <v>106.3406640374098</v>
       </c>
       <c r="H28" t="n">
-        <v>76.92869443443975</v>
+        <v>76.92869443443971</v>
       </c>
       <c r="I28" t="n">
         <v>62.68632565487435</v>
@@ -6388,16 +6388,16 @@
         <v>164.8028720345112</v>
       </c>
       <c r="L28" t="n">
-        <v>265.4099514347707</v>
+        <v>392.7844096077334</v>
       </c>
       <c r="M28" t="n">
-        <v>510.7779157353351</v>
+        <v>526.1165219036993</v>
       </c>
       <c r="N28" t="n">
-        <v>644.5388636533</v>
+        <v>771.9133218262624</v>
       </c>
       <c r="O28" t="n">
-        <v>870.3769683219524</v>
+        <v>997.7514264949149</v>
       </c>
       <c r="P28" t="n">
         <v>1060.719910223053</v>
@@ -6406,28 +6406,28 @@
         <v>1150.323920142496</v>
       </c>
       <c r="R28" t="n">
-        <v>1130.762814374631</v>
+        <v>1130.76281437463</v>
       </c>
       <c r="S28" t="n">
         <v>1047.013727396074</v>
       </c>
       <c r="T28" t="n">
-        <v>943.7954498295093</v>
+        <v>943.795449829509</v>
       </c>
       <c r="U28" t="n">
-        <v>786.5658859363652</v>
+        <v>786.565885936365</v>
       </c>
       <c r="V28" t="n">
-        <v>655.7912571125439</v>
+        <v>655.7912571125437</v>
       </c>
       <c r="W28" t="n">
-        <v>499.5955312476992</v>
+        <v>499.5955312476989</v>
       </c>
       <c r="X28" t="n">
-        <v>398.303742760831</v>
+        <v>398.3037427608308</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.2292595708642</v>
+        <v>306.229259570864</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>1638.39869009398</v>
       </c>
       <c r="C29" t="n">
-        <v>1386.425607044543</v>
+        <v>1386.425607044544</v>
       </c>
       <c r="D29" t="n">
         <v>1143.562317889523</v>
       </c>
       <c r="E29" t="n">
-        <v>878.7372736133859</v>
+        <v>878.7372736133863</v>
       </c>
       <c r="F29" t="n">
-        <v>594.5467585413123</v>
+        <v>594.5467585413127</v>
       </c>
       <c r="G29" t="n">
-        <v>308.4034476132564</v>
+        <v>308.4034476132567</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5428488283217</v>
+        <v>105.5428488283222</v>
       </c>
       <c r="I29" t="n">
         <v>62.68632565487435</v>
       </c>
       <c r="J29" t="n">
-        <v>262.0593281006427</v>
+        <v>216.9651972767723</v>
       </c>
       <c r="K29" t="n">
-        <v>629.5741583183883</v>
+        <v>584.4800274945178</v>
       </c>
       <c r="L29" t="n">
-        <v>1104.833989576297</v>
+        <v>1059.739858752427</v>
       </c>
       <c r="M29" t="n">
-        <v>1625.447614002348</v>
+        <v>1580.353483178477</v>
       </c>
       <c r="N29" t="n">
-        <v>2131.153430863027</v>
+        <v>2086.059300039156</v>
       </c>
       <c r="O29" t="n">
-        <v>2563.532473508823</v>
+        <v>2518.438342684953</v>
       </c>
       <c r="P29" t="n">
-        <v>2919.063828137839</v>
+        <v>2873.969697313968</v>
       </c>
       <c r="Q29" t="n">
-        <v>3095.776409173469</v>
+        <v>3095.776409173468</v>
       </c>
       <c r="R29" t="n">
-        <v>3134.316282743718</v>
+        <v>3134.316282743717</v>
       </c>
       <c r="S29" t="n">
         <v>3077.047982991828</v>
@@ -6497,10 +6497,10 @@
         <v>2857.725051672345</v>
       </c>
       <c r="V29" t="n">
-        <v>2650.706453186043</v>
+        <v>2650.706453186042</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.1321986614</v>
+        <v>2418.132198661399</v>
       </c>
       <c r="X29" t="n">
         <v>2166.062733800649</v>
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>927.2864686968139</v>
+        <v>941.9990861569185</v>
       </c>
       <c r="C30" t="n">
-        <v>765.5827959377687</v>
+        <v>780.2954133978732</v>
       </c>
       <c r="D30" t="n">
-        <v>626.7441589279807</v>
+        <v>641.4567763880852</v>
       </c>
       <c r="E30" t="n">
-        <v>479.7161489848519</v>
+        <v>494.4287664449564</v>
       </c>
       <c r="F30" t="n">
-        <v>345.0223509347263</v>
+        <v>359.7349683948307</v>
       </c>
       <c r="G30" t="n">
-        <v>216.2938509580109</v>
+        <v>231.0064684181153</v>
       </c>
       <c r="H30" t="n">
         <v>131.0686109648134</v>
@@ -6543,10 +6543,10 @@
         <v>122.9404721879805</v>
       </c>
       <c r="K30" t="n">
-        <v>352.4310247481692</v>
+        <v>352.4310247481691</v>
       </c>
       <c r="L30" t="n">
-        <v>718.2528699182849</v>
+        <v>718.2528699182848</v>
       </c>
       <c r="M30" t="n">
         <v>1203.286223428511</v>
@@ -6576,16 +6576,16 @@
         <v>1946.855717269057</v>
       </c>
       <c r="V30" t="n">
-        <v>1718.460094717391</v>
+        <v>1733.172712177496</v>
       </c>
       <c r="W30" t="n">
-        <v>1477.144225950701</v>
+        <v>1491.856843410806</v>
       </c>
       <c r="X30" t="n">
-        <v>1279.227237828496</v>
+        <v>1293.9398552886</v>
       </c>
       <c r="Y30" t="n">
-        <v>1086.705911478075</v>
+        <v>1101.418528938179</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>252.6345665042404</v>
+        <v>252.6345665042402</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9792725836768</v>
+        <v>212.9792725836766</v>
       </c>
       <c r="D31" t="n">
-        <v>189.8680550291956</v>
+        <v>189.8680550291955</v>
       </c>
       <c r="E31" t="n">
-        <v>167.8197164082706</v>
+        <v>167.8197164082704</v>
       </c>
       <c r="F31" t="n">
-        <v>145.2997370518038</v>
+        <v>145.2997370518036</v>
       </c>
       <c r="G31" t="n">
-        <v>106.3406640374099</v>
+        <v>106.3406640374098</v>
       </c>
       <c r="H31" t="n">
-        <v>76.92869443443975</v>
+        <v>76.92869443443971</v>
       </c>
       <c r="I31" t="n">
         <v>62.68632565487435</v>
       </c>
       <c r="J31" t="n">
-        <v>131.1986842898678</v>
+        <v>108.7668422047126</v>
       </c>
       <c r="K31" t="n">
-        <v>292.1773302074739</v>
+        <v>269.7454881223188</v>
       </c>
       <c r="L31" t="n">
-        <v>392.7844096077334</v>
+        <v>497.727025695541</v>
       </c>
       <c r="M31" t="n">
-        <v>510.7779157353352</v>
+        <v>743.0949899961055</v>
       </c>
       <c r="N31" t="n">
-        <v>756.5747156578982</v>
+        <v>861.5173317457059</v>
       </c>
       <c r="O31" t="n">
-        <v>870.3769683219524</v>
+        <v>959.9809782413955</v>
       </c>
       <c r="P31" t="n">
-        <v>1060.719910223053</v>
+        <v>1150.323920142496</v>
       </c>
       <c r="Q31" t="n">
         <v>1150.323920142496</v>
       </c>
       <c r="R31" t="n">
-        <v>1130.762814374631</v>
+        <v>1130.76281437463</v>
       </c>
       <c r="S31" t="n">
         <v>1047.013727396074</v>
       </c>
       <c r="T31" t="n">
-        <v>943.7954498295093</v>
+        <v>943.795449829509</v>
       </c>
       <c r="U31" t="n">
-        <v>786.5658859363652</v>
+        <v>786.565885936365</v>
       </c>
       <c r="V31" t="n">
-        <v>655.7912571125439</v>
+        <v>655.7912571125437</v>
       </c>
       <c r="W31" t="n">
-        <v>499.5955312476992</v>
+        <v>499.5955312476989</v>
       </c>
       <c r="X31" t="n">
-        <v>398.303742760831</v>
+        <v>398.3037427608308</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.2292595708642</v>
+        <v>306.229259570864</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1578.511661732583</v>
+        <v>1578.511661732584</v>
       </c>
       <c r="C32" t="n">
-        <v>1334.73540658736</v>
+        <v>1334.735406587361</v>
       </c>
       <c r="D32" t="n">
         <v>1100.068945336554</v>
       </c>
       <c r="E32" t="n">
-        <v>843.4407289646301</v>
+        <v>843.4407289646304</v>
       </c>
       <c r="F32" t="n">
-        <v>567.4470417967701</v>
+        <v>567.4470417967702</v>
       </c>
       <c r="G32" t="n">
-        <v>289.5005587729277</v>
+        <v>289.5005587729278</v>
       </c>
       <c r="H32" t="n">
-        <v>94.83678789220662</v>
+        <v>94.83678789220667</v>
       </c>
       <c r="I32" t="n">
-        <v>60.17709262297225</v>
+        <v>60.17709262297227</v>
       </c>
       <c r="J32" t="n">
         <v>267.5838060976603</v>
       </c>
       <c r="K32" t="n">
-        <v>538.1905678988578</v>
+        <v>507.7241781424431</v>
       </c>
       <c r="L32" t="n">
-        <v>1021.484110185686</v>
+        <v>886.0759409838056</v>
       </c>
       <c r="M32" t="n">
-        <v>1550.131445640657</v>
+        <v>1414.723276438776</v>
       </c>
       <c r="N32" t="n">
-        <v>2063.870973530255</v>
+        <v>1928.462804328374</v>
       </c>
       <c r="O32" t="n">
-        <v>2504.283727204971</v>
+        <v>2368.875558003091</v>
       </c>
       <c r="P32" t="n">
-        <v>2867.848792862907</v>
+        <v>2732.440623661026</v>
       </c>
       <c r="Q32" t="n">
-        <v>2962.281046549444</v>
+        <v>2962.281046549445</v>
       </c>
       <c r="R32" t="n">
-        <v>3008.854631148612</v>
+        <v>3008.854631148613</v>
       </c>
       <c r="S32" t="n">
-        <v>2959.783159300936</v>
+        <v>2959.783159300937</v>
       </c>
       <c r="T32" t="n">
-        <v>2873.581716553917</v>
+        <v>2873.581716553918</v>
       </c>
       <c r="U32" t="n">
-        <v>2756.853883789881</v>
+        <v>2756.853883789882</v>
       </c>
       <c r="V32" t="n">
         <v>2558.032113207792</v>
       </c>
       <c r="W32" t="n">
-        <v>2333.654686587362</v>
+        <v>2333.654686587363</v>
       </c>
       <c r="X32" t="n">
-        <v>2089.782049630825</v>
+        <v>2089.782049630826</v>
       </c>
       <c r="Y32" t="n">
-        <v>1834.397697728633</v>
+        <v>1834.397697728634</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>924.7772356649118</v>
+        <v>939.4898531250163</v>
       </c>
       <c r="C33" t="n">
-        <v>763.0735629058665</v>
+        <v>777.7861803659711</v>
       </c>
       <c r="D33" t="n">
-        <v>624.2349258960786</v>
+        <v>638.9475433561831</v>
       </c>
       <c r="E33" t="n">
         <v>491.9195334130543</v>
@@ -6774,7 +6774,7 @@
         <v>128.5593779329113</v>
       </c>
       <c r="I33" t="n">
-        <v>60.17709262297225</v>
+        <v>60.17709262297227</v>
       </c>
       <c r="J33" t="n">
         <v>120.4312391560784</v>
@@ -6804,25 +6804,25 @@
         <v>2504.325867460119</v>
       </c>
       <c r="S33" t="n">
-        <v>2351.52638047286</v>
+        <v>2366.238997932964</v>
       </c>
       <c r="T33" t="n">
-        <v>2162.841276638845</v>
+        <v>2177.55389409895</v>
       </c>
       <c r="U33" t="n">
-        <v>1944.346484237155</v>
+        <v>1959.05910169726</v>
       </c>
       <c r="V33" t="n">
-        <v>1715.950861685489</v>
+        <v>1730.663479145594</v>
       </c>
       <c r="W33" t="n">
-        <v>1474.634992918799</v>
+        <v>1489.347610378904</v>
       </c>
       <c r="X33" t="n">
-        <v>1276.718004796594</v>
+        <v>1291.430622256698</v>
       </c>
       <c r="Y33" t="n">
-        <v>1084.196678446173</v>
+        <v>1098.909295906277</v>
       </c>
     </row>
     <row r="34">
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>192.7475381428434</v>
+        <v>192.7475381428439</v>
       </c>
       <c r="C34" t="n">
-        <v>161.2890721264934</v>
+        <v>161.2890721264937</v>
       </c>
       <c r="D34" t="n">
-        <v>146.3746824762258</v>
+        <v>146.3746824762261</v>
       </c>
       <c r="E34" t="n">
-        <v>132.5231717595142</v>
+        <v>132.5231717595145</v>
       </c>
       <c r="F34" t="n">
-        <v>118.200020307261</v>
+        <v>118.2000203072612</v>
       </c>
       <c r="G34" t="n">
-        <v>87.43777519708063</v>
+        <v>87.43777519708077</v>
       </c>
       <c r="H34" t="n">
-        <v>66.22263349832409</v>
+        <v>66.22263349832417</v>
       </c>
       <c r="I34" t="n">
-        <v>60.17709262297225</v>
+        <v>60.17709262297227</v>
       </c>
       <c r="J34" t="n">
-        <v>136.7231622868854</v>
+        <v>136.7231622868853</v>
       </c>
       <c r="K34" t="n">
-        <v>170.3273500315288</v>
+        <v>305.7355192334111</v>
       </c>
       <c r="L34" t="n">
-        <v>348.0011241383831</v>
+        <v>541.750767835553</v>
       </c>
       <c r="M34" t="n">
-        <v>601.4027994678673</v>
+        <v>659.7442739631547</v>
       </c>
       <c r="N34" t="n">
-        <v>719.8251412174677</v>
+        <v>855.233310419351</v>
       </c>
       <c r="O34" t="n">
-        <v>953.6969569150399</v>
+        <v>953.6969569150407</v>
       </c>
       <c r="P34" t="n">
         <v>1016.665440643178</v>
@@ -6880,28 +6880,28 @@
         <v>1016.665440643178</v>
       </c>
       <c r="R34" t="n">
-        <v>1005.301162779525</v>
+        <v>1005.301162779526</v>
       </c>
       <c r="S34" t="n">
-        <v>929.7489037051827</v>
+        <v>929.7489037051835</v>
       </c>
       <c r="T34" t="n">
-        <v>834.7274540428311</v>
+        <v>834.7274540428319</v>
       </c>
       <c r="U34" t="n">
-        <v>685.6947180539006</v>
+        <v>685.6947180539014</v>
       </c>
       <c r="V34" t="n">
-        <v>563.1169171342929</v>
+        <v>563.1169171342935</v>
       </c>
       <c r="W34" t="n">
-        <v>415.1180191736615</v>
+        <v>415.1180191736622</v>
       </c>
       <c r="X34" t="n">
-        <v>322.0230585910069</v>
+        <v>322.0230585910075</v>
       </c>
       <c r="Y34" t="n">
-        <v>238.1454033052536</v>
+        <v>238.1454033052541</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D35" t="n">
-        <v>942.7443621478541</v>
+        <v>942.7443621478543</v>
       </c>
       <c r="E35" t="n">
-        <v>715.7657787614932</v>
+        <v>715.7657787614934</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791959</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409159</v>
+        <v>221.1248745409162</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575748</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J35" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K35" t="n">
         <v>527.7073651707066</v>
@@ -6944,28 +6944,28 @@
         <v>875.5927382556529</v>
       </c>
       <c r="M35" t="n">
-        <v>1384.640850310115</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N35" t="n">
-        <v>1762.97220899783</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O35" t="n">
-        <v>2232.444567961697</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P35" t="n">
-        <v>2460.60146441775</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q35" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104288</v>
       </c>
       <c r="R35" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104288</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242173</v>
+        <v>2535.611879242174</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480718</v>
       </c>
       <c r="U35" t="n">
         <v>2391.981869702243</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="36">
@@ -6993,25 +6993,25 @@
         <v>915.7008174040254</v>
       </c>
       <c r="C36" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D36" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E36" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F36" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G36" t="n">
         <v>219.4208171253267</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>119.4829596720248</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749091</v>
+        <v>54.02211951749092</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208574</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K37" t="n">
-        <v>84.70486210672915</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L37" t="n">
-        <v>185.3119415069887</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M37" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N37" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O37" t="n">
         <v>566.4101965415339</v>
@@ -7178,22 +7178,22 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L38" t="n">
-        <v>875.5927382556528</v>
+        <v>751.3007196776764</v>
       </c>
       <c r="M38" t="n">
-        <v>1384.640850310115</v>
+        <v>1144.539885930764</v>
       </c>
       <c r="N38" t="n">
-        <v>1762.97220899783</v>
+        <v>1522.87124461848</v>
       </c>
       <c r="O38" t="n">
-        <v>2067.976793470664</v>
+        <v>1827.875829091314</v>
       </c>
       <c r="P38" t="n">
-        <v>2296.133689926718</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7239,7 +7239,7 @@
         <v>468.1304976920634</v>
       </c>
       <c r="F39" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G39" t="n">
         <v>219.4208171253267</v>
@@ -7315,43 +7315,43 @@
         <v>51.10067436208573</v>
       </c>
       <c r="E40" t="n">
-        <v>66.5844139977867</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5844139977867</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G40" t="n">
-        <v>65.47180187316897</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H40" t="n">
-        <v>65.47180187316897</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I40" t="n">
-        <v>65.47180187316897</v>
+        <v>74.23504503930332</v>
       </c>
       <c r="J40" t="n">
-        <v>65.47180187316897</v>
+        <v>74.23504503930332</v>
       </c>
       <c r="K40" t="n">
-        <v>99.07598961781238</v>
+        <v>107.8392327839467</v>
       </c>
       <c r="L40" t="n">
-        <v>199.6830690180719</v>
+        <v>208.4463121842062</v>
       </c>
       <c r="M40" t="n">
-        <v>317.6765751456736</v>
+        <v>326.439818311808</v>
       </c>
       <c r="N40" t="n">
-        <v>436.098916895274</v>
+        <v>448.912461366242</v>
       </c>
       <c r="O40" t="n">
-        <v>565.2975844169162</v>
+        <v>547.3761078619317</v>
       </c>
       <c r="P40" t="n">
-        <v>628.266068145054</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q40" t="n">
-        <v>628.266068145054</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R40" t="n">
         <v>628.266068145054</v>
@@ -7412,22 +7412,22 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>479.0485364810482</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>826.9339095659944</v>
+        <v>875.5927382556528</v>
       </c>
       <c r="M41" t="n">
-        <v>1384.640850310115</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N41" t="n">
-        <v>1927.439983488863</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O41" t="n">
-        <v>2232.444567961697</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P41" t="n">
-        <v>2460.60146441775</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q41" t="n">
         <v>2555.033718104287</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C42" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D42" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E42" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G42" t="n">
         <v>219.4208171253267</v>
@@ -7521,19 +7521,19 @@
         <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X42" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y42" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.90950739287318</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C43" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="D43" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="E43" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="F43" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="G43" t="n">
         <v>51.10067436208574</v>
       </c>
-      <c r="D43" t="n">
+      <c r="H43" t="n">
         <v>51.10067436208574</v>
       </c>
-      <c r="E43" t="n">
+      <c r="I43" t="n">
         <v>51.10067436208574</v>
       </c>
-      <c r="F43" t="n">
-        <v>66.12215891288227</v>
-      </c>
-      <c r="G43" t="n">
-        <v>65.00954678826454</v>
-      </c>
-      <c r="H43" t="n">
-        <v>65.00954678826454</v>
-      </c>
-      <c r="I43" t="n">
-        <v>65.00954678826454</v>
-      </c>
       <c r="J43" t="n">
-        <v>65.00954678826454</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K43" t="n">
-        <v>98.61373453290796</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L43" t="n">
-        <v>199.2208139331674</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M43" t="n">
-        <v>317.2143200607692</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N43" t="n">
-        <v>435.6366618103696</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O43" t="n">
-        <v>534.1003083060592</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P43" t="n">
-        <v>597.068792034197</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q43" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R43" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S43" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T43" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U43" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V43" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W43" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X43" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="44">
@@ -7646,25 +7646,25 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259237</v>
       </c>
       <c r="K44" t="n">
-        <v>363.2395906796742</v>
+        <v>643.5163109720805</v>
       </c>
       <c r="L44" t="n">
-        <v>711.1249637646204</v>
+        <v>1155.869458548059</v>
       </c>
       <c r="M44" t="n">
-        <v>1104.364130017708</v>
+        <v>1549.108624801147</v>
       </c>
       <c r="N44" t="n">
-        <v>1482.695488705424</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O44" t="n">
-        <v>1952.16784766929</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P44" t="n">
-        <v>2344.792518616376</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q44" t="n">
         <v>2555.033718104287</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C45" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D45" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E45" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F45" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G45" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H45" t="n">
         <v>119.4829596720247</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S45" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V45" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X45" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y45" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749102</v>
+        <v>52.90950739287324</v>
       </c>
       <c r="C46" t="n">
-        <v>52.21328648670352</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D46" t="n">
-        <v>52.21328648670352</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E46" t="n">
-        <v>52.21328648670352</v>
+        <v>66.58441399778665</v>
       </c>
       <c r="F46" t="n">
-        <v>52.21328648670352</v>
+        <v>66.58441399778665</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208574</v>
+        <v>65.47180187316887</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208574</v>
+        <v>65.47180187316887</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208574</v>
+        <v>88.60617255038642</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208574</v>
+        <v>88.60617255038642</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672915</v>
+        <v>122.2103602950298</v>
       </c>
       <c r="L46" t="n">
-        <v>185.3119415069887</v>
+        <v>222.8174396952894</v>
       </c>
       <c r="M46" t="n">
-        <v>349.5242082962445</v>
+        <v>340.8109458228911</v>
       </c>
       <c r="N46" t="n">
-        <v>467.9465500458449</v>
+        <v>459.2332875724915</v>
       </c>
       <c r="O46" t="n">
-        <v>566.4101965415346</v>
+        <v>557.6969340681811</v>
       </c>
       <c r="P46" t="n">
-        <v>629.3786802696724</v>
+        <v>620.6654177963189</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.3786802696724</v>
+        <v>620.6654177963189</v>
       </c>
       <c r="R46" t="n">
-        <v>629.3786802696724</v>
+        <v>628.2660681450546</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808921</v>
+        <v>582.3634420562744</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041031</v>
+        <v>516.9916253794854</v>
       </c>
       <c r="U46" t="n">
-        <v>398.7211345007353</v>
+        <v>397.6085223761174</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666901</v>
+        <v>304.6803544420723</v>
       </c>
       <c r="W46" t="n">
-        <v>187.4437015916214</v>
+        <v>186.3310894670036</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945293</v>
+        <v>122.8857618699116</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433864</v>
+        <v>68.65773956972086</v>
       </c>
     </row>
   </sheetData>
@@ -7991,10 +7991,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>495.0402356415689</v>
+        <v>370.8458734565161</v>
       </c>
       <c r="P2" t="n">
-        <v>294.1439584378735</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
         <v>276.0094878578761</v>
@@ -8058,25 +8058,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>420.4876819686679</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>600.6529294339223</v>
+        <v>600.6529294339226</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>315.099226679209</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8228,10 +8228,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>370.8458734565149</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>418.3383206229274</v>
+        <v>294.1439584378746</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8295,22 +8295,22 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>223.8247937300762</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>600.6529294339223</v>
+        <v>600.6529294339226</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>413.8579854311712</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
         <v>273.1004740566038</v>
@@ -8529,13 +8529,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
@@ -8547,10 +8547,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9483,7 +9483,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>482.092448894497</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
@@ -9717,7 +9717,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163523</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -23261,7 +23261,7 @@
         <v>286.2199636654877</v>
       </c>
       <c r="D11" t="n">
-        <v>277.2012677100157</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>29.17850740088428</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>201.4589751975915</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.4622282009166</v>
+        <v>93.46222820091666</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>130.220899391266</v>
       </c>
       <c r="U11" t="n">
-        <v>160.4420255081129</v>
+        <v>160.442025508113</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W11" t="n">
-        <v>267.015123425942</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>75.33609373079557</v>
       </c>
       <c r="H13" t="n">
-        <v>65.88446135348593</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>50.86655653831528</v>
+        <v>50.86655653831534</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>119.6782075553163</v>
+        <v>119.6782075553164</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>192.4238797007581</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>166.2334939821287</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.57540435990913</v>
+        <v>101.3141577012302</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>237.5986042436308</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>79.19456938825897</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.4622282009166</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.220899391266</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>160.4420255081129</v>
       </c>
       <c r="V14" t="n">
         <v>241.7150239479851</v>
       </c>
       <c r="W14" t="n">
-        <v>54.12652302928632</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>136.4488192903581</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>297.7119794548873</v>
       </c>
     </row>
     <row r="15">
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>75.33609373079551</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>65.88446135348593</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>50.86655653831528</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>56.13210615673258</v>
       </c>
       <c r="S16" t="n">
         <v>119.6782075553163</v>
       </c>
       <c r="T16" t="n">
-        <v>138.952706237445</v>
+        <v>138.9527062374449</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>166.2334939821286</v>
       </c>
       <c r="W16" t="n">
-        <v>62.71048409242667</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>32.43199557616229</v>
       </c>
     </row>
     <row r="17">
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>5.85001617220778e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -26320,7 +26320,7 @@
         <v>153524.8120988364</v>
       </c>
       <c r="E2" t="n">
-        <v>133333.1309278902</v>
+        <v>133333.1309278901</v>
       </c>
       <c r="F2" t="n">
         <v>133333.1309278902</v>
@@ -26332,25 +26332,25 @@
         <v>153524.8120988364</v>
       </c>
       <c r="I2" t="n">
-        <v>153524.8120988363</v>
+        <v>153524.8120988364</v>
       </c>
       <c r="J2" t="n">
-        <v>153524.8120988363</v>
+        <v>153524.8120988364</v>
       </c>
       <c r="K2" t="n">
         <v>153524.8120988364</v>
       </c>
       <c r="L2" t="n">
-        <v>153524.8120988363</v>
+        <v>153524.8120988361</v>
       </c>
       <c r="M2" t="n">
         <v>153524.8120988364</v>
       </c>
       <c r="N2" t="n">
-        <v>153524.8120988363</v>
+        <v>153524.8120988364</v>
       </c>
       <c r="O2" t="n">
-        <v>153524.8120988363</v>
+        <v>153524.8120988364</v>
       </c>
       <c r="P2" t="n">
         <v>153524.8120988362</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165529.9134506507</v>
+        <v>165529.9134506508</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9743.038208746882</v>
+        <v>9743.038208746791</v>
       </c>
       <c r="E3" t="n">
         <v>107390.8010757635</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>59387.68618193917</v>
+        <v>59387.68618193916</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>210668.4794422432</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>65879.57388207634</v>
+        <v>65879.57388207625</v>
       </c>
       <c r="M3" t="n">
-        <v>23482.5093245656</v>
+        <v>23482.50932456565</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>43541.16890732364</v>
+        <v>43541.16890732362</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194229.0330603502</v>
+        <v>194229.0330603501</v>
       </c>
       <c r="C4" t="n">
-        <v>194229.0330603502</v>
+        <v>194229.0330603501</v>
       </c>
       <c r="D4" t="n">
         <v>185775.7593332931</v>
       </c>
       <c r="E4" t="n">
-        <v>118181.7253353295</v>
+        <v>118181.7253353294</v>
       </c>
       <c r="F4" t="n">
         <v>118181.7253353295</v>
@@ -26457,7 +26457,7 @@
         <v>175623.1205402357</v>
       </c>
       <c r="P4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63659.01753266581</v>
+        <v>63659.01753266583</v>
       </c>
       <c r="C5" t="n">
-        <v>63659.01753266581</v>
+        <v>63659.01753266583</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
@@ -26491,16 +26491,16 @@
         <v>52802.81689264637</v>
       </c>
       <c r="J5" t="n">
-        <v>58458.01489582855</v>
+        <v>58458.01489582854</v>
       </c>
       <c r="K5" t="n">
-        <v>58458.01489582855</v>
+        <v>58458.01489582854</v>
       </c>
       <c r="L5" t="n">
-        <v>57233.20592541149</v>
+        <v>57233.2059254115</v>
       </c>
       <c r="M5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264638</v>
       </c>
       <c r="N5" t="n">
         <v>52802.81689264637</v>
@@ -26522,31 +26522,31 @@
         <v>-269893.1519448304</v>
       </c>
       <c r="C6" t="n">
-        <v>-104363.2384941796</v>
+        <v>-104363.2384941795</v>
       </c>
       <c r="D6" t="n">
-        <v>-107560.0200801151</v>
+        <v>-107560.020080115</v>
       </c>
       <c r="E6" t="n">
-        <v>-138801.3831388123</v>
+        <v>-139053.7791534492</v>
       </c>
       <c r="F6" t="n">
-        <v>-31410.58206304882</v>
+        <v>-31662.97807768577</v>
       </c>
       <c r="G6" t="n">
-        <v>-134288.8115159849</v>
+        <v>-134288.8115159848</v>
       </c>
       <c r="H6" t="n">
+        <v>-74901.12533404562</v>
+      </c>
+      <c r="I6" t="n">
         <v>-74901.12533404568</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-74901.12533404573</v>
       </c>
       <c r="J6" t="n">
         <v>-291970.4951750274</v>
       </c>
       <c r="K6" t="n">
-        <v>-81302.0157327842</v>
+        <v>-81302.01573278419</v>
       </c>
       <c r="L6" t="n">
         <v>-145788.7842400523</v>
@@ -26555,13 +26555,13 @@
         <v>-98383.63465861128</v>
       </c>
       <c r="N6" t="n">
-        <v>-74901.12533404576</v>
+        <v>-74901.12533404568</v>
       </c>
       <c r="O6" t="n">
-        <v>-118442.2942413694</v>
+        <v>-118442.2942413693</v>
       </c>
       <c r="P6" t="n">
-        <v>-74901.1253340457</v>
+        <v>-74901.12533404585</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F2" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.937788366214</v>
+        <v>493.9377883662143</v>
       </c>
       <c r="C4" t="n">
-        <v>493.937788366214</v>
+        <v>493.9377883662143</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="F4" t="n">
         <v>638.7584295260716</v>
@@ -26811,16 +26811,16 @@
         <v>638.7584295260717</v>
       </c>
       <c r="J4" t="n">
-        <v>783.5790706859294</v>
+        <v>783.5790706859293</v>
       </c>
       <c r="K4" t="n">
-        <v>783.5790706859294</v>
+        <v>783.5790706859293</v>
       </c>
       <c r="L4" t="n">
-        <v>752.2136577871531</v>
+        <v>752.2136577871534</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.758429526072</v>
       </c>
       <c r="N4" t="n">
         <v>638.7584295260716</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>74.23460772742396</v>
+        <v>74.23460772742395</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.42646113415455</v>
+        <v>54.42646113415452</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>82.34946735259541</v>
+        <v>82.34946735259531</v>
       </c>
       <c r="M2" t="n">
-        <v>29.353136655707</v>
+        <v>29.35313665570706</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415455</v>
+        <v>54.42646113415452</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.937788366214</v>
+        <v>493.9377883662143</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31.3654128987763</v>
+        <v>31.36541289877601</v>
       </c>
       <c r="E4" t="n">
         <v>113.4552282610814</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.758429526072</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>74.23460772742396</v>
+        <v>74.23460772742395</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415455</v>
+        <v>54.42646113415452</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>493.937788366214</v>
+        <v>493.9377883662143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.3654128987763</v>
+        <v>31.36541289877601</v>
       </c>
       <c r="M4" t="n">
         <v>113.4552282610814</v>
@@ -27388,7 +27388,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.2375631867115</v>
+        <v>273.0216772585005</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.4112333022684</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>87.83297250446597</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>150.9558484244806</v>
@@ -27552,7 +27552,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>191.1764017197444</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>196.6476610395317</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27616,10 +27616,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>113.3235561184688</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>8.167902487165691</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>107.6486724370496</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.0193987204696</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
@@ -27795,7 +27795,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,16 +27825,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>191.3634458863872</v>
+        <v>46.8600145267487</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>236.0245055827356</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>166.3477438067154</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27935,13 +27935,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>122.5065584817367</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>43.35930026125382</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>55.53859667054797</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28056,7 +28056,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>30.37171059993472</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
@@ -28068,10 +28068,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="C11" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="D11" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="E11" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F11" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G11" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="H11" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="I11" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="J11" t="n">
-        <v>91.89445741503297</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>91.89445741503297</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>91.89445741503297</v>
+        <v>79.49647998155598</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="O11" t="n">
-        <v>91.89445741503297</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Q11" t="n">
-        <v>81.65903375748266</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="S11" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="T11" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="U11" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="V11" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="W11" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="X11" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
     </row>
     <row r="12">
@@ -28220,7 +28220,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>14.5654912855039</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="C13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="D13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="E13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="H13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="I13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="J13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="K13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="L13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="M13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="N13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="O13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="P13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="R13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="S13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="U13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="V13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="W13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="X13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503292</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="C14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="D14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="E14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="F14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="G14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="H14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="I14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="J14" t="n">
-        <v>91.89445741503297</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="L14" t="n">
-        <v>91.89445741503297</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="N14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="O14" t="n">
-        <v>91.89445741503297</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="Q14" t="n">
-        <v>81.65903375748266</v>
+        <v>79.4964799815551</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="S14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="T14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="U14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="V14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="W14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="X14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
     </row>
     <row r="15">
@@ -28460,7 +28460,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28472,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.56549128550347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="C16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="D16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="E16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="F16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="G16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="H16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="I16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="J16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="K16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="L16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="M16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="N16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="O16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="P16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="R16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="S16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="U16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="V16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="W16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="X16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503299</v>
       </c>
     </row>
     <row r="17">
@@ -28585,25 +28585,25 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K17" t="n">
-        <v>40.58157162934933</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>40.58157162934924</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="N17" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K19" t="n">
-        <v>46.68561682995296</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>46.68561682995293</v>
       </c>
       <c r="Q19" t="n">
         <v>38.15196793284785</v>
@@ -28822,22 +28822,22 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J20" t="n">
+        <v>116.9787331327009</v>
+      </c>
+      <c r="K20" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="M20" t="n">
-        <v>116.9787331327009</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
@@ -28974,7 +28974,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
@@ -28989,13 +28989,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>37.21161982508798</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>46.68561682995295</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29059,16 +29059,16 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K23" t="n">
-        <v>40.58157162934921</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>166.1290651424569</v>
+        <v>40.58157162934924</v>
       </c>
       <c r="N23" t="n">
         <v>166.1290651424569</v>
@@ -29217,13 +29217,13 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
-        <v>59.456666199969</v>
+        <v>106.142283029922</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>46.68561682995301</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29311,13 +29311,13 @@
         <v>128.6610688615785</v>
       </c>
       <c r="O26" t="n">
-        <v>83.11144176676009</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="P26" t="n">
         <v>128.6610688615785</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.6610688615785</v>
+        <v>83.11144176675984</v>
       </c>
       <c r="R26" t="n">
         <v>128.6610688615785</v>
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>14.5654912855035</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29417,7 +29417,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>14.56549128550367</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29460,19 +29460,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="M28" t="n">
+        <v>15.49354158420621</v>
+      </c>
+      <c r="N28" t="n">
         <v>128.6610688615785</v>
-      </c>
-      <c r="N28" t="n">
-        <v>15.49354158420662</v>
       </c>
       <c r="O28" t="n">
         <v>128.6610688615785</v>
       </c>
       <c r="P28" t="n">
-        <v>128.6610688615785</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>128.6610688615785</v>
@@ -29533,7 +29533,7 @@
         <v>128.6610688615785</v>
       </c>
       <c r="J29" t="n">
-        <v>128.6610688615785</v>
+        <v>83.1114417667599</v>
       </c>
       <c r="K29" t="n">
         <v>128.6610688615785</v>
@@ -29554,7 +29554,7 @@
         <v>128.6610688615785</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.11144176676029</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="R29" t="n">
         <v>128.6610688615785</v>
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>14.56549128550338</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29648,7 +29648,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>14.56549128550333</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -29691,28 +29691,28 @@
         <v>128.6610688615785</v>
       </c>
       <c r="J31" t="n">
-        <v>128.6610688615785</v>
+        <v>106.0026425129369</v>
       </c>
       <c r="K31" t="n">
         <v>128.6610688615785</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="N31" t="n">
-        <v>128.6610688615785</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>15.4935415842066</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>128.6610688615785</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.6610688615785</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
         <v>128.6610688615785</v>
@@ -29773,10 +29773,10 @@
         <v>136.7759284867499</v>
       </c>
       <c r="K32" t="n">
-        <v>30.77413106708556</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>136.7759284867499</v>
+        <v>30.77413106708718</v>
       </c>
       <c r="M32" t="n">
         <v>136.7759284867499</v>
@@ -29791,7 +29791,7 @@
         <v>136.7759284867499</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="R32" t="n">
         <v>136.7759284867499</v>
@@ -29834,7 +29834,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>14.56549128550341</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -29876,7 +29876,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>14.56549128550353</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29931,19 +29931,19 @@
         <v>136.7759284867499</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="L34" t="n">
-        <v>77.84514616827764</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="M34" t="n">
-        <v>136.7759284867499</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>77.84514616827876</v>
       </c>
       <c r="O34" t="n">
-        <v>136.7759284867499</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -30007,28 +30007,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>116.9787331327007</v>
-      </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>116.9787331327017</v>
       </c>
       <c r="R35" t="n">
         <v>89.73190363910518</v>
@@ -30065,7 +30065,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>14.56549128550328</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
-        <v>59.456666199969</v>
+        <v>106.1422830299219</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>46.68561682995295</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30250,25 +30250,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
+        <v>40.58157162934953</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="M38" t="n">
-        <v>116.978733132701</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30311,10 +30311,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="G39" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -30387,10 +30387,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
@@ -30399,7 +30399,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
@@ -30414,10 +30414,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>4.091213439225953</v>
       </c>
       <c r="O40" t="n">
-        <v>31.04547578379038</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30484,25 +30484,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>116.978733132701</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N41" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="R41" t="n">
         <v>89.73190363910518</v>
@@ -30551,7 +30551,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>14.56549128550328</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30593,7 +30593,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30627,7 +30627,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>166.1290651424569</v>
@@ -30639,7 +30639,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
-        <v>59.456666199969</v>
+        <v>106.142283029922</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.66436804482456</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
@@ -30718,13 +30718,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>116.9787331327011</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30733,13 +30733,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>116.9787331327012</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>89.73190363910518</v>
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>14.56549128550327</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30861,7 +30861,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -30873,7 +30873,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J46" t="n">
         <v>59.456666199969</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>46.68561682995369</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
-        <v>148.0265635717656</v>
+        <v>155.7039881664481</v>
       </c>
       <c r="S46" t="n">
         <v>166.1290651424569</v>
@@ -34466,7 +34466,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>-5.968558980384842e-13</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>308.0854388614484</v>
+        <v>183.8910766763956</v>
       </c>
       <c r="P2" t="n">
-        <v>106.267149386717</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
         <v>95.38611483488586</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>305.0037794070279</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>493.937788366214</v>
+        <v>493.9377883662143</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>206.2450206550656</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>183.8910766763944</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>230.4615115717709</v>
+        <v>106.2671493867181</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>111.2493601589284</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>493.937788366214</v>
+        <v>493.9377883662143</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>305.0037794070279</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
         <v>159.3652826117113</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
@@ -35267,10 +35267,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>164.6202597107963</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>334.4604897835004</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>443.2938241675039</v>
+        <v>430.8958467340269</v>
       </c>
       <c r="M11" t="n">
-        <v>397.2112790435232</v>
+        <v>489.1057364585561</v>
       </c>
       <c r="N11" t="n">
-        <v>382.1528875633492</v>
+        <v>474.0473449783822</v>
       </c>
       <c r="O11" t="n">
-        <v>399.9798962764814</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>322.3559689868039</v>
       </c>
       <c r="Q11" t="n">
-        <v>177.0451485923685</v>
+        <v>187.2805722499188</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2.162553775927734</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.43779121506397</v>
+        <v>32.43779121506392</v>
       </c>
       <c r="K13" t="n">
-        <v>125.8380813995213</v>
+        <v>125.8380813995212</v>
       </c>
       <c r="L13" t="n">
         <v>193.5177699405476</v>
       </c>
       <c r="M13" t="n">
-        <v>211.0798171398832</v>
+        <v>211.0798171398831</v>
       </c>
       <c r="N13" t="n">
         <v>211.5129844348313</v>
       </c>
       <c r="O13" t="n">
-        <v>191.3526861985579</v>
+        <v>191.3526861985578</v>
       </c>
       <c r="P13" t="n">
-        <v>155.498986433354</v>
+        <v>155.4989864333539</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.74248948218512</v>
+        <v>53.74248948218506</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>164.6202597107963</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5660323684674</v>
+        <v>334.4604897835004</v>
       </c>
       <c r="L14" t="n">
-        <v>443.2938241675039</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>489.1057364585562</v>
       </c>
       <c r="N14" t="n">
         <v>474.0473449783822</v>
       </c>
       <c r="O14" t="n">
-        <v>399.9798962764814</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>230.4615115717709</v>
+        <v>322.3559689868039</v>
       </c>
       <c r="Q14" t="n">
-        <v>177.0451485923685</v>
+        <v>174.882594816441</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>2.162553775927805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.43779121506397</v>
+        <v>32.43779121506399</v>
       </c>
       <c r="K16" t="n">
         <v>125.8380813995213</v>
@@ -35823,7 +35823,7 @@
         <v>155.498986433354</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.74248948218512</v>
+        <v>53.74248948218514</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K17" t="n">
-        <v>283.1476039978168</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>563.3403441859801</v>
+        <v>437.7928506728724</v>
       </c>
       <c r="N17" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q17" t="n">
         <v>95.38611483488586</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>80.62924081444126</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L19" t="n">
         <v>101.6233125255146</v>
@@ -36057,7 +36057,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P19" t="n">
-        <v>63.604529018321</v>
+        <v>110.2901458482739</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>238.8548674382202</v>
+        <v>189.7045354284642</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L20" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>514.1900121762241</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P20" t="n">
         <v>230.4615115717709</v>
@@ -36203,10 +36203,10 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
-        <v>369.5170153233491</v>
+        <v>369.5170153233492</v>
       </c>
       <c r="M21" t="n">
-        <v>489.9326803133602</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
         <v>516.4299455789112</v>
@@ -36261,7 +36261,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -36270,7 +36270,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -36285,13 +36285,13 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M22" t="n">
-        <v>119.1853597248502</v>
+        <v>156.3969795499382</v>
       </c>
       <c r="N22" t="n">
         <v>119.6185270197983</v>
       </c>
       <c r="O22" t="n">
-        <v>146.1438456134779</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P22" t="n">
         <v>63.604529018321</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K23" t="n">
-        <v>283.1476039978166</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
-        <v>563.3403441859801</v>
+        <v>437.7928506728724</v>
       </c>
       <c r="N23" t="n">
         <v>548.2819527058061</v>
@@ -36437,7 +36437,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
-        <v>231.8086389496856</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>46.68561682995296</v>
       </c>
       <c r="K25" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L25" t="n">
-        <v>148.3089293554677</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M25" t="n">
         <v>119.1853597248502</v>
@@ -36598,25 +36598,25 @@
         <v>371.2271012300459</v>
       </c>
       <c r="L26" t="n">
-        <v>480.0604356140494</v>
+        <v>480.0604356140495</v>
       </c>
       <c r="M26" t="n">
         <v>525.8723479051017</v>
       </c>
       <c r="N26" t="n">
-        <v>510.8139564249277</v>
+        <v>510.8139564249278</v>
       </c>
       <c r="O26" t="n">
-        <v>391.1968806282085</v>
+        <v>436.746507723027</v>
       </c>
       <c r="P26" t="n">
-        <v>359.1225804333494</v>
+        <v>359.1225804333495</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.0471836964644</v>
+        <v>178.4975566016457</v>
       </c>
       <c r="R26" t="n">
-        <v>38.92916522247333</v>
+        <v>38.92916522247336</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.20440266160952</v>
+        <v>69.20440266160955</v>
       </c>
       <c r="K28" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L28" t="n">
-        <v>101.6233125255146</v>
+        <v>230.2843813870932</v>
       </c>
       <c r="M28" t="n">
-        <v>247.8464285864287</v>
+        <v>134.6789013090564</v>
       </c>
       <c r="N28" t="n">
-        <v>135.112068604005</v>
+        <v>248.2795958813769</v>
       </c>
       <c r="O28" t="n">
-        <v>228.1192976451034</v>
+        <v>228.1192976451035</v>
       </c>
       <c r="P28" t="n">
-        <v>192.2655978798995</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.50910092873066</v>
+        <v>90.50910092873069</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>201.3868711573418</v>
+        <v>155.8372440625232</v>
       </c>
       <c r="K29" t="n">
         <v>371.2271012300459</v>
       </c>
       <c r="L29" t="n">
-        <v>480.0604356140494</v>
+        <v>480.0604356140495</v>
       </c>
       <c r="M29" t="n">
         <v>525.8723479051017</v>
       </c>
       <c r="N29" t="n">
-        <v>510.8139564249277</v>
+        <v>510.8139564249278</v>
       </c>
       <c r="O29" t="n">
         <v>436.746507723027</v>
       </c>
       <c r="P29" t="n">
-        <v>359.1225804333494</v>
+        <v>359.1225804333495</v>
       </c>
       <c r="Q29" t="n">
-        <v>178.4975566016462</v>
+        <v>224.0471836964644</v>
       </c>
       <c r="R29" t="n">
-        <v>38.92916522247333</v>
+        <v>38.92916522247336</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.20440266160952</v>
+        <v>46.54597631296795</v>
       </c>
       <c r="K31" t="n">
         <v>162.6046928460668</v>
       </c>
       <c r="L31" t="n">
-        <v>101.6233125255146</v>
+        <v>230.2843813870932</v>
       </c>
       <c r="M31" t="n">
-        <v>119.1853597248502</v>
+        <v>247.8464285864288</v>
       </c>
       <c r="N31" t="n">
-        <v>248.2795958813768</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O31" t="n">
-        <v>114.9517703677315</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P31" t="n">
         <v>192.2655978798995</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.50910092873066</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>209.5017307825132</v>
       </c>
       <c r="K32" t="n">
-        <v>273.340163435553</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L32" t="n">
-        <v>488.1752952392209</v>
+        <v>382.1734978195581</v>
       </c>
       <c r="M32" t="n">
         <v>533.9872075302731</v>
@@ -37081,16 +37081,16 @@
         <v>518.9288160500992</v>
       </c>
       <c r="O32" t="n">
-        <v>444.8613673481984</v>
+        <v>444.8613673481983</v>
       </c>
       <c r="P32" t="n">
-        <v>367.2374400585209</v>
+        <v>367.2374400585208</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.38611483488586</v>
+        <v>232.1620433216357</v>
       </c>
       <c r="R32" t="n">
-        <v>47.04402484764475</v>
+        <v>47.04402484764469</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.31926228678094</v>
+        <v>77.31926228678088</v>
       </c>
       <c r="K34" t="n">
-        <v>33.9436239844883</v>
+        <v>170.7195524712382</v>
       </c>
       <c r="L34" t="n">
-        <v>179.4684586937923</v>
+        <v>238.3992410122645</v>
       </c>
       <c r="M34" t="n">
-        <v>255.9612882116002</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>119.6185270197983</v>
+        <v>197.4636731880771</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2341572702749</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
         <v>63.604529018321</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K35" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
-        <v>514.1900121762238</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N35" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.38611483488586</v>
+        <v>212.3648479675875</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>46.68561682995295</v>
       </c>
       <c r="K37" t="n">
         <v>33.9436239844883</v>
@@ -37476,7 +37476,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O37" t="n">
-        <v>146.1438456134779</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P37" t="n">
         <v>63.604529018321</v>
@@ -37546,10 +37546,10 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>517.5284318949278</v>
+        <v>391.9809383818205</v>
       </c>
       <c r="M38" t="n">
-        <v>514.1900121762242</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
         <v>382.1528875633492</v>
@@ -37558,13 +37558,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q38" t="n">
         <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37683,10 +37683,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>15.6401410461626</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37710,10 +37710,10 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N40" t="n">
-        <v>119.6185270197983</v>
+        <v>123.7097404590243</v>
       </c>
       <c r="O40" t="n">
-        <v>130.5037045673153</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
         <v>63.604529018321</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37780,25 +37780,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>359.5447655011685</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M41" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P41" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>212.3648479675866</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>46.68561682995296</v>
       </c>
       <c r="K43" t="n">
         <v>33.9436239844883</v>
@@ -37956,7 +37956,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.5124001119767</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5660323684674</v>
+        <v>359.5447655011685</v>
       </c>
       <c r="L44" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M44" t="n">
         <v>397.2112790435232</v>
@@ -38029,13 +38029,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>474.2145040039053</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3648479675871</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>15.64014104616254</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>23.36805118910863</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>165.8709765548039</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
         <v>119.6185270197983</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.677424594682537</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
